--- a/public/deckBook.xlsx
+++ b/public/deckBook.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\jQuery\yugihoDeckBuilder\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86768E3A-50F0-48EC-8FAE-F04342EE0677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8705AF7-0F9C-41C3-93B3-1972184E02A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="0" windowWidth="21600" windowHeight="11295" xr2:uid="{EC30D526-9FAA-4E4E-8633-94E6F4025E84}"/>
+    <workbookView xWindow="-28920" yWindow="465" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{EC30D526-9FAA-4E4E-8633-94E6F4025E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Starter </t>
   </si>
@@ -93,13 +94,65 @@
   </si>
   <si>
     <t>ISHIZU TEARALAMENTS</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>usage</t>
+  </si>
+  <si>
+    <t>Ash Blossom &amp; Joyous Spring</t>
+  </si>
+  <si>
+    <t>Called by the Grave</t>
+  </si>
+  <si>
+    <t>Infinite Impermanence</t>
+  </si>
+  <si>
+    <t>Effect Veiler</t>
+  </si>
+  <si>
+    <t>Nibiru</t>
+  </si>
+  <si>
+    <t>Ghost Ogre &amp; Snow Rabbit</t>
+  </si>
+  <si>
+    <t>Forbidden Droplet</t>
+  </si>
+  <si>
+    <t>PSY-Framegear Gamma</t>
+  </si>
+  <si>
+    <t>Ghost Belle &amp; Haunted Mansion</t>
+  </si>
+  <si>
+    <t>Dark Ruler No More</t>
+  </si>
+  <si>
+    <t>Maxx "C"</t>
+  </si>
+  <si>
+    <t>Lightning Storm</t>
+  </si>
+  <si>
+    <t>D.D. Crow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,17 +178,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
@@ -167,9 +226,23 @@
     <tableColumn id="4" xr3:uid="{7D06664A-CD00-489D-AC0E-68D31BF941FB}" name="Drytron " totalsRowFunction="sum"/>
     <tableColumn id="9" xr3:uid="{4E5A46C1-F549-48AF-895D-B259EEEFDF6A}" name="ISHIZU TEARALAMENTS" totalsRowFunction="sum"/>
     <tableColumn id="5" xr3:uid="{0225DDF4-2E64-48BB-82A5-BEAB4ABB23D2}" name="Branded link" totalsRowFunction="sum"/>
-    <tableColumn id="6" xr3:uid="{9D01C857-9067-4020-A898-97CDBE661344}" name="AVG" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{9D01C857-9067-4020-A898-97CDBE661344}" name="AVG" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="1">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Eldlich]:[Branded link]])</calculatedColumnFormula>
     </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B2EC9861-BE64-4346-8CF5-DC811BFD58D6}" name="Table2" displayName="Table2" ref="B2:C15" totalsRowShown="0">
+  <autoFilter ref="B2:C15" xr:uid="{B2EC9861-BE64-4346-8CF5-DC811BFD58D6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:C15">
+    <sortCondition descending="1" ref="C2:C15"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{27DE06FE-822B-4B54-80C0-CD08A69DF319}" name="Card"/>
+    <tableColumn id="2" xr3:uid="{0335D0FF-66CB-423A-B3C5-7264BD9D211F}" name="usage" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -474,19 +547,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06463904-E231-48C9-87C1-7F60AEE31321}">
   <dimension ref="B2:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
@@ -831,4 +905,138 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65080DC-20A3-44D2-A502-418DDB42E7F9}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.3599</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.28570000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.22570000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.14030000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.7100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.1899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2">
+        <v>5.2299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4.8300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4.5100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.0099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.4700000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>